--- a/phonics_lessons.xlsx
+++ b/phonics_lessons.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atn12\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atn12\Downloads\unspecified_story\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -1519,6 +1520,45 @@
   </si>
   <si>
     <t>The carnival is in town! Get your tickets, grab a friend, and head on down to the fair grounds. With so many options for excitement and entertainment, everyone is bound to have a great day at the carnival. If you are seeking adventure, head over to the midway. This is where you will find the rides. Slide down the bumpy super slide, walk through the spooky haunted house, or buckle up for a ride on the speedy roller coaster. If you get hungry, wander over to the food trucks. Here you will find every treat imaginable. A giant corndog, a funnel cake, and an ice-cold lemonade are the perfect carnival combination. If you get too hot and sweaty outside, step into the expo hall. Here you will meet farmers who can teach you about animals like chickens, pigs, and goats. You may even get to hold a baby chick! Also, there may be a cartoonist who will draw your caricature and a band playing music. At the end of the day, everyone gathers to watch the firework display in the night sky. This part is never a disappointment. Spending the day at the carnival is always enjoyable.</t>
+  </si>
+  <si>
+    <t>Lesson #</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Diversity</t>
+  </si>
+  <si>
+    <t>IMG_EVAL</t>
+  </si>
+  <si>
+    <t>STRY_EVAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am fit.  _x000d_
+I can run.  _x000d_
+I can jump.  _x000d_
+It is fun!  Look at the fat cat.  _x000d_
+The fat cat can sit.  _x000d_
+The fat cat is not fit.  _x000d_
+Oh, no! The cat wants to run.  _x000d_
+The cat wants to jump.  _x000d_
+The cat wants to be fit.  _x000d_
+Can the cat be fit?   The cat can play!  _x000d_
+The cat can run fast.  _x000d_
+The cat can jump high.  _x000d_
+The cat is now fit! Fun is fit!  _x000d_
+Fit is fun!  _x000d_
+The fat cat is fit.  _x000d_
+What a fun cat!   </t>
+  </si>
+  <si>
+    <t>13/15</t>
+  </si>
+  <si>
+    <t>15/15</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1906,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3956,7 +3996,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" topLeftCell="A88">
+    <sheetView zoomScaleNormal="100" workbookViewId="0" topLeftCell="A73">
       <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
@@ -5001,4 +5041,51 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/phonics_lessons.xlsx
+++ b/phonics_lessons.xlsx
@@ -7,7 +7,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -871,13 +871,13 @@
     <t xml:space="preserve">zap, zip, quiz, zen, zest,zit </t>
   </si>
   <si>
-    <t>at, as, map, sad, sat, had, has, bad, and, an, can, pan, hand, plant, plan, lamp</t>
-  </si>
-  <si>
-    <t>if, it, him, win, big, sit, did, hit, sits, list, skin, twin, flip, trip</t>
-  </si>
-  <si>
-    <t>on, mom, lot, hot, fox, job, spot, stop, frog, loss, pond, soft</t>
+    <t xml:space="preserve">at, as, map, sad, sat, had, has, bad, and, an, can, pan, hand, plant, plan, lamp, hat, mat, gap, dad, tag, gas, mad, jab, ax, nab, dab, tap, lab, cat,  zap, fat, map,  ban, van, ram, man, jam, tan, fan, man, ham, fast, grab, crab, band, clap, slab, slam, scan, mask, pact, rasp, sand, raft, flag, pant, vast, flap, past, last, damp, cast, slapm, flap</t>
+  </si>
+  <si>
+    <t>Sit, in, fin, lid, bit, fix, hip, kit, his, fig, quit, hid, did, hit, gig, pig, lip, fit, if, dim, jig, mix, dip, bin, its, him, lit, fib, pit, blip, clip, disk, lint, mint, flip, slip, drip, fist, slid, grip, slit, brim, swig, limp, sift, slim, gift, tilt, skin, snip, wind, skip, skid, grim, hint, it, win, big, kids, list, trip</t>
+  </si>
+  <si>
+    <t>Bop, jog, job, cot, jot, rot, not, dot, lop, lot, pod, sob, cod, bog, mop, top, fox, log, dog, got, fog, cop, nod, rod, on, hot, hop, box, pop, stop, trot, clot, bond, fond, loft, prod, pond, spot, slob, clog, frog, hogs, logs, moms, mom, crop, cost, dogs, plot, soft, flop, pots, plop, sobs, slot, blot</t>
   </si>
   <si>
     <t>at, is, on, mom, him, job, map, sat, and, man, had, if, sit, his, six, not, got, lot, top, fast, land, spot, wind, fit, kids, stop, hop, skip</t>
@@ -2951,8 +2951,8 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="B16">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5046,7 +5046,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/phonics_lessons.xlsx
+++ b/phonics_lessons.xlsx
@@ -910,7 +910,7 @@
     <t>thin, thick, with, math, path, bath, moth, cloth, froth</t>
   </si>
   <si>
-    <t xml:space="preserve">chop, much, chip, chat, check, inch, such, rich </t>
+    <t>chop, much, chip, chat, check, inch, such, rich, chap, crunch, chin, bench, chick, chuck, hunch, ranch, bench, chest, bunch, inch, pinch, chug, quench, clinch, chum, ranch, check, lunch, much</t>
   </si>
   <si>
     <t>shed, with, this, chip, much, with, them, this, back, math, flash, shock, checks</t>
@@ -937,7 +937,7 @@
     <t>rope, hole, note, rode, home, rose, those, phone, stove, globe</t>
   </si>
   <si>
-    <t>home, theme, eve, these, here, make, state, time, white, those</t>
+    <t>home, theme, eve, these, here, make, state, time, white, those, sphere, choke, came, these, broke, gate, bike, pole, stone, eve, bake, fade, maze, theme, drone, wife, zone, case, male, drive, grape, cake, bone, wrote, lake, bride</t>
   </si>
   <si>
     <t>rude, rule, mule, duke, tube, tune, flute, use, puke, cute, mute</t>
@@ -1006,7 +1006,7 @@
     <t>start, important, hard, part, large, march, form, more, story, before, morning</t>
   </si>
   <si>
-    <t>term, after, letter, her, fern, verb, herd, perch, serve, under, number, never, over</t>
+    <t>term, after, letter, her, fern, verb, herd, perch, serve, under, number, never, over, serve, clerk, observe, number, mister, verse, sister, ever, super, diverge, perk, her, under, term, perk, term, farmer, merge, fern</t>
   </si>
   <si>
     <t>turn, dirty, girl, bird, third, hurt, burn, nurse, churn, thirty, turtle</t>
@@ -1051,7 +1051,7 @@
     <t>head, wash, read, bread, meant, heavy, spread, feather, went, watch, father, water</t>
   </si>
   <si>
-    <t>voice, toy, boyhood, point, soil, noise, join, spoil, choice, boy, toys, enjoy</t>
+    <t>voice, toy, boyhood, point, soil, noise, join, spoil, choice, boy, toys, enjoy, choice, voice, oil, coil, soil, foil, coins, coin, point, moist, toy, spoils, joint, toil, voice, boy, joy, soy, choice, coy</t>
   </si>
   <si>
     <t xml:space="preserve">sound, how, around, outside, house,  round, now, our, out, brown, crowd, without, downtown</t>
@@ -1090,7 +1090,7 @@
     <t>shopped, begged, clapping, sitting</t>
   </si>
   <si>
-    <t>hotter, hottest, slimmer, slimmest, wetter, wettest</t>
+    <t>hotter, hottest, slimmer, slimmest, wetter, wettest. glummer, slimmest, maddest, flatter, sadder, bigger, thinner, madder, slimmer, reddest, glummest, biggest, flattest, saddest, redder</t>
   </si>
   <si>
     <t xml:space="preserve">braver, cuter, largest, joked, hoping,  biting, sliding</t>
@@ -2951,8 +2951,8 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="B16">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="B88">
+      <selection activeCell="O113" sqref="O113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3996,7 +3996,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" topLeftCell="A73">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
